--- a/python-side/data/raw_data/movies.xlsx
+++ b/python-side/data/raw_data/movies.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,22 +437,32 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>movieId</t>
+          <t>movie_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>movie_title</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>movie_year</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>genres</t>
+          <t>movie_genres</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>movie_actors</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>movie_producers</t>
         </is>
       </c>
     </row>
@@ -462,7 +472,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toy Story </t>
+          <t>Toy Story</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -475,6 +485,8 @@
           <t>Adventure, Animation, Children, Comedy, Fantasy</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -482,7 +494,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jumanji </t>
+          <t>Jumanji</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,6 +507,8 @@
           <t>Adventure, Children, Fantasy</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -502,7 +516,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Grumpier Old Men </t>
+          <t>Grumpier Old Men</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -515,6 +529,8 @@
           <t>Comedy, Romance</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -522,7 +538,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Waiting to Exhale </t>
+          <t>Waiting to Exhale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -535,6 +551,8 @@
           <t>Comedy, Drama, Romance</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -542,7 +560,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Father of the Bride Part II </t>
+          <t>Father of the Bride Part II</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -555,6 +573,8 @@
           <t>Comedy</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -562,7 +582,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Heat </t>
+          <t>Heat</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -575,6 +595,8 @@
           <t>Action, Crime, Thriller</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -582,7 +604,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sabrina </t>
+          <t>Sabrina</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -595,6 +617,8 @@
           <t>Comedy, Romance</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -602,7 +626,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tom and Huck </t>
+          <t>Tom and Huck</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -615,6 +639,8 @@
           <t>Adventure, Children</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -622,7 +648,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sudden Death </t>
+          <t>Sudden Death</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -635,6 +661,8 @@
           <t>Action</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -642,7 +670,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">GoldenEye </t>
+          <t>GoldenEye</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -655,6 +683,8 @@
           <t>Action, Adventure, Thriller</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -662,7 +692,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">American President, The </t>
+          <t>American President, The</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -675,6 +705,8 @@
           <t>Comedy, Drama, Romance</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -682,7 +714,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dracula: Dead and Loving It </t>
+          <t>Dracula: Dead and Loving It</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -695,6 +727,8 @@
           <t>Comedy, Horror</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -702,7 +736,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Balto </t>
+          <t>Balto</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -715,6 +749,8 @@
           <t>Adventure, Animation, Children</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -722,7 +758,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nixon </t>
+          <t>Nixon</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -735,6 +771,8 @@
           <t>Drama</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -742,7 +780,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cutthroat Island </t>
+          <t>Cutthroat Island</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -755,6 +793,8 @@
           <t>Action, Adventure, Romance</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -762,7 +802,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Casino </t>
+          <t>Casino</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -775,6 +815,8 @@
           <t>Crime, Drama</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -782,7 +824,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sense and Sensibility </t>
+          <t>Sense and Sensibility</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -795,6 +837,8 @@
           <t>Drama, Romance</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -802,7 +846,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Four Rooms </t>
+          <t>Four Rooms</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -815,6 +859,8 @@
           <t>Comedy</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -822,7 +868,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ace Ventura: When Nature Calls </t>
+          <t>Ace Ventura: When Nature Calls</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -835,6 +881,8 @@
           <t>Comedy</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -842,7 +890,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Money Train </t>
+          <t>Money Train</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -855,6 +903,8 @@
           <t>Action, Comedy, Crime, Drama, Thriller</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -862,7 +912,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Get Shorty </t>
+          <t>Get Shorty</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -875,6 +925,8 @@
           <t>Comedy, Crime, Thriller</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -882,7 +934,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Copycat </t>
+          <t>Copycat</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -895,6 +947,8 @@
           <t>Crime, Drama, Horror, Mystery, Thriller</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -902,7 +956,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Assassins </t>
+          <t>Assassins</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -915,6 +969,8 @@
           <t>Action, Crime, Thriller</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -922,7 +978,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Powder </t>
+          <t>Powder</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -935,6 +991,8 @@
           <t>Drama, Sci-Fi</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -942,7 +1000,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leaving Las Vegas </t>
+          <t>Leaving Las Vegas</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -955,6 +1013,8 @@
           <t>Drama, Romance</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -962,7 +1022,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Othello </t>
+          <t>Othello</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -975,6 +1035,8 @@
           <t>Drama</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -982,7 +1044,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Now and Then </t>
+          <t>Now and Then</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -995,6 +1057,8 @@
           <t>Children, Drama</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1002,7 +1066,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Persuasion </t>
+          <t>Persuasion</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1015,6 +1079,8 @@
           <t>Drama, Romance</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1022,12 +1088,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">City of Lost Children, The </t>
+          <t>City of Lost Children, The (Cité des enfants perdus, La)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cité des enfants perdus, La </t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1035,6 +1101,8 @@
           <t>Adventure, Drama, Fantasy, Mystery, Sci-Fi</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1042,12 +1110,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shanghai Triad </t>
+          <t>Shanghai Triad (Yao a yao yao dao waipo qiao)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yao a yao yao dao waipo qiao </t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1055,6 +1123,8 @@
           <t>Crime, Drama</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1062,7 +1132,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dangerous Minds </t>
+          <t>Dangerous Minds</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1075,6 +1145,8 @@
           <t>Drama</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1082,12 +1154,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Twelve Monkeys </t>
+          <t>Twelve Monkeys (a.k.a. 12 Monkeys)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">a.k.a. 12 Monkeys </t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1095,6 +1167,8 @@
           <t>Mystery, Sci-Fi, Thriller</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1102,7 +1176,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wings of Courage </t>
+          <t>Wings of Courage</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1115,6 +1189,8 @@
           <t>Adventure, Romance, IMAX</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1122,7 +1198,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Babe </t>
+          <t>Babe</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1135,6 +1211,8 @@
           <t>Children, Drama</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1142,7 +1220,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carrington </t>
+          <t>Carrington</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1155,6 +1233,8 @@
           <t>Drama, Romance</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1162,7 +1242,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dead Man Walking </t>
+          <t>Dead Man Walking</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1175,6 +1255,8 @@
           <t>Crime, Drama</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1182,7 +1264,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Across the Sea of Time </t>
+          <t>Across the Sea of Time</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1195,6 +1277,8 @@
           <t>Documentary, IMAX</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1202,7 +1286,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">It Takes Two </t>
+          <t>It Takes Two</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1215,6 +1299,8 @@
           <t>Children, Comedy</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1222,7 +1308,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Clueless </t>
+          <t>Clueless</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1235,6 +1321,8 @@
           <t>Comedy, Romance</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1242,7 +1330,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cry, the Beloved Country </t>
+          <t>Cry, the Beloved Country</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1255,6 +1343,8 @@
           <t>Drama</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1262,7 +1352,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Richard III </t>
+          <t>Richard III</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1275,6 +1365,8 @@
           <t>Drama, War</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1282,7 +1374,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dead Presidents </t>
+          <t>Dead Presidents</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1295,6 +1387,8 @@
           <t>Action, Crime, Drama</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1302,7 +1396,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restoration </t>
+          <t>Restoration</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1315,6 +1409,8 @@
           <t>Drama</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1322,7 +1418,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mortal Kombat </t>
+          <t>Mortal Kombat</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1335,6 +1431,8 @@
           <t>Action, Adventure, Fantasy</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1342,7 +1440,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">To Die For </t>
+          <t>To Die For</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1355,6 +1453,8 @@
           <t>Comedy, Drama, Thriller</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1362,7 +1462,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">How to Make an American Quilt </t>
+          <t>How to Make an American Quilt</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1375,6 +1475,8 @@
           <t>Drama, Romance</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1382,12 +1484,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seven </t>
+          <t>Seven (a.k.a. Se7en)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">a.k.a. Se7en </t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1395,6 +1497,8 @@
           <t>Mystery, Thriller</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1402,7 +1506,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pocahontas </t>
+          <t>Pocahontas</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1415,6 +1519,8 @@
           <t>Animation, Children, Drama, Musical, Romance</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1422,7 +1528,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">When Night Is Falling </t>
+          <t>When Night Is Falling</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1435,6 +1541,8 @@
           <t>Drama, Romance</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1442,7 +1550,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Usual Suspects, The </t>
+          <t>Usual Suspects, The</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1455,6 +1563,1108 @@
           <t>Crime, Mystery, Thriller</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Guardian Angel</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Action, Drama, Thriller</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Mighty Aphrodite</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Comedy, Drama, Romance</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Lamerica</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Adventure, Drama</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Big Green, The</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Children, Comedy</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Kids of the Round Table</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Adventure, Children, Comedy, Fantasy</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Home for the Holidays</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Postman, The (Postino, Il)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Comedy, Drama, Romance</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Confessional, The (Confessionnal, Le)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Drama, Mystery</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Indian in the Cupboard, The</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Adventure, Children, Fantasy</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Eye for an Eye</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Drama, Thriller</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Mr. Holland's Opus</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Don't Be a Menace to South Central While Drinking Your Juice in the Hood</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Comedy, Crime</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Two if by Sea</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Comedy, Romance</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Bio-Dome</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Lawnmower Man 2: Beyond Cyberspace</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Action, Sci-Fi, Thriller</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Two Bits</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>French Twist (Gazon maudit)</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Comedy, Romance</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>From Dusk Till Dawn</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Action, Comedy, Horror, Thriller</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Fair Game</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Kicking and Screaming</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Comedy, Drama</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Misérables, Les</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Drama, War</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Bed of Roses</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Drama, Romance</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Big Bully</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Comedy, Drama</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Screamers</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Action, Sci-Fi, Thriller</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Nico Icon</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Documentary</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Crossing Guard, The</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Action, Crime, Drama, Thriller</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Juror, The</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Drama, Thriller</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>White Balloon, The (Badkonake sefid)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Children, Drama</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Things to Do in Denver When You're Dead</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Crime, Drama, Romance</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Antonia's Line (Antonia)</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Comedy, Drama</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Once Upon a Time... When We Were Colored</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Drama, Romance</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Last Summer in the Hamptons</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Comedy, Drama</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Angels and Insects</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Drama, Romance</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>White Squall</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Action, Adventure, Drama</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Dunston Checks In</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Children, Comedy</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Black Sheep</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Nick of Time</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Action, Thriller</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>The Journey of August King</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>92</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Mary Reilly</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Drama, Horror, Thriller</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>93</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Vampire in Brooklyn</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Comedy, Horror, Romance</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>94</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Beautiful Girls</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Comedy, Drama, Romance</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>95</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Broken Arrow</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Action, Adventure, Thriller</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>96</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>In the Bleak Midwinter</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Comedy, Drama</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>97</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Hate (Haine, La)</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Crime, Drama</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>98</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Action, Thriller</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>99</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Heidi Fleiss: Hollywood Madam</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Documentary</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>100</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>City Hall</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Drama, Thriller</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>101</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Bottle Rocket</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Adventure, Comedy, Crime, Romance</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/python-side/data/raw_data/movies.xlsx
+++ b/python-side/data/raw_data/movies.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2667,6 +2667,6 @@
       <c r="F101" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/python-side/data/raw_data/movies.xlsx
+++ b/python-side/data/raw_data/movies.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J201"/>
+  <dimension ref="A1:J301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,11 +508,7 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -546,11 +542,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -584,11 +576,7 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -622,11 +610,7 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -660,11 +644,7 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -698,11 +678,7 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -736,11 +712,7 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -774,11 +746,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -812,11 +780,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -850,11 +814,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -888,11 +848,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -926,11 +882,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -964,11 +916,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -1002,11 +950,7 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -1040,11 +984,7 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -1078,11 +1018,7 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -1116,11 +1052,7 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -1154,11 +1086,7 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -1192,11 +1120,7 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -1230,11 +1154,7 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -1268,11 +1188,7 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -1306,11 +1222,7 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -1344,11 +1256,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -1382,11 +1290,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -1420,11 +1324,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -1458,11 +1358,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -1496,11 +1392,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -1534,11 +1426,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -1572,11 +1460,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -1610,11 +1494,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -1648,11 +1528,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -1686,11 +1562,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -1724,11 +1596,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -1762,11 +1630,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -1800,11 +1664,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -1838,11 +1698,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -1876,11 +1732,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -1914,11 +1766,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -1952,11 +1800,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -1990,11 +1834,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -2028,11 +1868,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -2066,11 +1902,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -2104,11 +1936,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -2142,11 +1970,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -2180,11 +2004,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -2218,11 +2038,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -2256,11 +2072,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -2294,11 +2106,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -2332,11 +2140,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -2370,11 +2174,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -2408,11 +2208,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -2446,11 +2242,7 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -2484,11 +2276,7 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -2522,11 +2310,7 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -2560,11 +2344,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -2598,11 +2378,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -2636,11 +2412,7 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -2674,11 +2446,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -2712,11 +2480,7 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -2750,11 +2514,7 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -2788,11 +2548,7 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -2826,11 +2582,7 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -2864,11 +2616,7 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -2902,11 +2650,7 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -2940,11 +2684,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -2978,11 +2718,7 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -3016,11 +2752,7 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -3054,11 +2786,7 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -3092,11 +2820,7 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -3130,11 +2854,7 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -3168,11 +2888,7 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -3206,11 +2922,7 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -3244,11 +2956,7 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -3282,11 +2990,7 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -3320,11 +3024,7 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -3358,11 +3058,7 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -3396,11 +3092,7 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -3434,11 +3126,7 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -3472,11 +3160,7 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -3510,11 +3194,7 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -3548,11 +3228,7 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -3586,11 +3262,7 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -3624,11 +3296,7 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -3662,11 +3330,7 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -3700,11 +3364,7 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -3738,11 +3398,7 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -3776,11 +3432,7 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -3814,11 +3466,7 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -3852,11 +3500,7 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -3890,11 +3534,7 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -3928,11 +3568,7 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -3966,11 +3602,7 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -4004,11 +3636,7 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -4042,11 +3670,7 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -4080,11 +3704,7 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -4118,11 +3738,7 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -4156,11 +3772,7 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -4194,11 +3806,7 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -4232,11 +3840,7 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -4270,11 +3874,7 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -4308,11 +3908,7 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -4346,11 +3942,7 @@
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -4384,11 +3976,7 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -4422,11 +4010,7 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -4460,11 +4044,7 @@
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -4498,11 +4078,7 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -4536,11 +4112,7 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -4574,11 +4146,7 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -4612,11 +4180,7 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -4650,11 +4214,7 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -4688,11 +4248,7 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -4726,11 +4282,7 @@
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -4764,11 +4316,7 @@
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -4802,11 +4350,7 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -4840,11 +4384,7 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -4878,11 +4418,7 @@
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -4916,11 +4452,7 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -4954,11 +4486,7 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -4992,11 +4520,7 @@
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -5030,11 +4554,7 @@
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -5068,11 +4588,7 @@
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -5106,11 +4622,7 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -5144,11 +4656,7 @@
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -5182,11 +4690,7 @@
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -5220,11 +4724,7 @@
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -5258,11 +4758,7 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -5296,11 +4792,7 @@
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -5334,11 +4826,7 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -5372,11 +4860,7 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -5410,11 +4894,7 @@
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -5448,11 +4928,7 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -5486,11 +4962,7 @@
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -5524,11 +4996,7 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -5562,11 +5030,7 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -5600,11 +5064,7 @@
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -5638,11 +5098,7 @@
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -5676,11 +5132,7 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -5714,11 +5166,7 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -5752,11 +5200,7 @@
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -5790,11 +5234,7 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -5828,11 +5268,7 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -5866,11 +5302,7 @@
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -5904,11 +5336,7 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -5942,11 +5370,7 @@
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -5980,11 +5404,7 @@
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -6018,11 +5438,7 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -6056,11 +5472,7 @@
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -6094,11 +5506,7 @@
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -6132,11 +5540,7 @@
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -6170,11 +5574,7 @@
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -6208,11 +5608,7 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -6246,11 +5642,7 @@
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -6284,11 +5676,7 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -6322,11 +5710,7 @@
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -6360,11 +5744,7 @@
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -6398,11 +5778,7 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -6436,11 +5812,7 @@
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -6474,11 +5846,7 @@
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -6512,11 +5880,7 @@
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -6550,11 +5914,7 @@
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -6588,11 +5948,7 @@
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -6626,11 +5982,7 @@
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -6664,11 +6016,7 @@
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -6702,11 +6050,7 @@
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -6740,11 +6084,7 @@
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -6778,11 +6118,7 @@
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -6816,11 +6152,7 @@
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -6854,11 +6186,7 @@
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -6892,11 +6220,7 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -6930,11 +6254,7 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -6968,11 +6288,7 @@
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -7006,11 +6322,7 @@
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -7044,11 +6356,7 @@
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -7082,11 +6390,7 @@
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -7120,11 +6424,7 @@
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -7158,11 +6458,7 @@
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -7196,11 +6492,7 @@
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -7234,11 +6526,7 @@
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -7272,11 +6560,7 @@
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -7310,11 +6594,7 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -7348,11 +6628,7 @@
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -7386,11 +6662,7 @@
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -7424,11 +6696,7 @@
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -7462,11 +6730,7 @@
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -7500,11 +6764,7 @@
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -7538,11 +6798,7 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -7576,11 +6832,7 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -7614,11 +6866,7 @@
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -7652,11 +6900,7 @@
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -7690,11 +6934,7 @@
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -7728,11 +6968,7 @@
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -7766,11 +7002,7 @@
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -7804,11 +7036,7 @@
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -7842,11 +7070,7 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -7880,11 +7104,7 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -7918,11 +7138,7 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -7956,11 +7172,7 @@
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -7994,11 +7206,7 @@
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -8032,11 +7240,7 @@
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
@@ -8070,17 +7274,3413 @@
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
           <t>OLK3m02o7xE</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>202</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Total Eclipse</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Drama, Romance</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>203</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>To Wong Foo, Thanks for Everything! Julie Newmar</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>204</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Under Siege 2: Dark Territory</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>205</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Unstrung Heroes</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Comedy, Drama</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>206</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Unzipped</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Documentary</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>207</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Walk in the Clouds, A</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Drama, Romance</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>208</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Waterworld</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Action, Adventure, Sci-Fi</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>209</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>White Man's Burden</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>210</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Wild Bill</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>211</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Browning Version, The</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>212</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Bushwhacked</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Adventure, Comedy, Crime, Mystery</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>213</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Burnt by the Sun (Utomlyonnye solntsem)</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>214</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Before the Rain (Pred dozhdot)</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Drama, War</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>215</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Before Sunrise</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Drama, Romance</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>216</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Billy Madison</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>217</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Babysitter, The</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Drama, Thriller</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>218</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Boys on the Side</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Comedy, Drama</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>219</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Cure, The</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>220</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Castle Freak</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Horror</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>222</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Circle of Friends</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Drama, Romance</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>223</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Clerks</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>224</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Don Juan DeMarco</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Comedy, Drama, Romance</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>225</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Disclosure</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Drama, Thriller</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>226</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Dream Man</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>227</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Drop Zone</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Action, Thriller</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>228</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Destiny Turns on the Radio</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>229</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Death and the Maiden</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Drama, Thriller</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>230</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Dolores Claiborne</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Drama, Thriller</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>231</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Dumb &amp; Dumber (Dumb and Dumber)</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Adventure, Comedy</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>232</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Eat Drink Man Woman (Yin shi nan nu)</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Comedy, Drama, Romance</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>233</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Exotica</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>234</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Exit to Eden</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>235</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Ed Wood</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Comedy, Drama</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>236</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>French Kiss</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Action, Comedy, Romance</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>237</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Forget Paris</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Comedy, Romance</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>238</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Far From Home: The Adventures of Yellow Dog</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Adventure, Children</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>239</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Goofy Movie, A</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Animation, Children, Comedy, Romance</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>240</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Hideaway</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="inlineStr"/>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>241</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Fluke</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Children, Drama</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="inlineStr"/>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>242</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Farinelli: il castrato</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Drama, Musical</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr"/>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>243</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Gordy</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Children, Comedy, Fantasy</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr"/>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>244</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Gumby: The Movie</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Animation, Children</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="inlineStr"/>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>245</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>The Glass Shield</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Crime, Drama</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>246</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Hoop Dreams</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Documentary</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="inlineStr"/>
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>247</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Heavenly Creatures</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Crime, Drama</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr"/>
+      <c r="F246" t="inlineStr"/>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>248</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Houseguest</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="inlineStr"/>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>249</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Immortal Beloved</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Drama, Romance</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>250</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Heavyweights (Heavy Weights)</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Children, Comedy</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>251</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Hunted, The</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr"/>
+      <c r="F250" t="inlineStr"/>
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>252</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>I.Q.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Comedy, Romance</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr"/>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>253</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Interview with the Vampire: The Vampire Chronicles</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Drama, Horror</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>254</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Jefferson in Paris</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="inlineStr"/>
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>255</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Jerky Boys, The</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="inlineStr"/>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>256</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Comedy, Sci-Fi</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="inlineStr"/>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>257</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Just Cause</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Mystery, Thriller</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr"/>
+      <c r="F256" t="inlineStr"/>
+      <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>258</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Kid in King Arthur's Court, A</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Adventure, Children, Comedy, Fantasy, Romance</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="inlineStr"/>
+      <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>259</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Kiss of Death</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Crime, Drama, Thriller</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr"/>
+      <c r="F258" t="inlineStr"/>
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>260</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Star Wars: Episode IV - A New Hope</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Action, Adventure, Sci-Fi</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="inlineStr"/>
+      <c r="G259" t="inlineStr"/>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>261</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Little Women</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr"/>
+      <c r="F260" t="inlineStr"/>
+      <c r="G260" t="inlineStr"/>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>262</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Little Princess, A</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Children, Drama</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr"/>
+      <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>263</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Ladybird Ladybird</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>264</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Enfer, L'</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="inlineStr"/>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>265</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Like Water for Chocolate (Como agua para chocolate)</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Drama, Fantasy, Romance</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr"/>
+      <c r="F264" t="inlineStr"/>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>266</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Legends of the Fall</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Drama, Romance, War, Western</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="inlineStr"/>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>267</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Major Payne</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>268</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Little Odessa</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Crime, Drama</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>269</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>My Crazy Life (Mi vida loca)</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>270</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Love Affair</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Drama, Romance</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>271</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Losing Isaiah</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="inlineStr"/>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>272</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Madness of King George, The</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Comedy, Drama</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>273</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Mary Shelley's Frankenstein (Frankenstein)</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Drama, Horror, Sci-Fi</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr"/>
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>274</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Man of the House</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr"/>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>275</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Mixed Nuts</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="inlineStr"/>
+      <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>276</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Milk Money</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Comedy, Romance</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" t="inlineStr"/>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>277</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Miracle on 34th Street</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr"/>
+      <c r="F276" t="inlineStr"/>
+      <c r="G276" t="inlineStr"/>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>278</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Miami Rhapsody</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr"/>
+      <c r="F277" t="inlineStr"/>
+      <c r="G277" t="inlineStr"/>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>279</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>My Family</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="inlineStr"/>
+      <c r="G278" t="inlineStr"/>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>280</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Murder in the First</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Drama, Thriller</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr"/>
+      <c r="G279" t="inlineStr"/>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>281</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Nobody's Fool</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Comedy, Drama, Romance</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" t="inlineStr"/>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>282</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Nell</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr"/>
+      <c r="F281" t="inlineStr"/>
+      <c r="G281" t="inlineStr"/>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>283</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>New Jersey Drive</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Crime, Drama</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr"/>
+      <c r="F282" t="inlineStr"/>
+      <c r="G282" t="inlineStr"/>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>284</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>New York Cop (Nyû Yôku no koppu)</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Action, Crime</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr"/>
+      <c r="F283" t="inlineStr"/>
+      <c r="G283" t="inlineStr"/>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>285</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Beyond Bedlam</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Drama, Horror</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr"/>
+      <c r="F284" t="inlineStr"/>
+      <c r="G284" t="inlineStr"/>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>286</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Nemesis 2: Nebula</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Action, Sci-Fi, Thriller</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr"/>
+      <c r="F285" t="inlineStr"/>
+      <c r="G285" t="inlineStr"/>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>287</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Nina Takes a Lover</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Comedy, Romance</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr"/>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="inlineStr"/>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>288</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Natural Born Killers</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Action, Crime, Thriller</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr"/>
+      <c r="F287" t="inlineStr"/>
+      <c r="G287" t="inlineStr"/>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>289</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Only You</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Comedy, Romance</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr"/>
+      <c r="F288" t="inlineStr"/>
+      <c r="G288" t="inlineStr"/>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>290</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Once Were Warriors</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Crime, Drama</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr"/>
+      <c r="F289" t="inlineStr"/>
+      <c r="G289" t="inlineStr"/>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>292</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Outbreak</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Action, Drama, Sci-Fi, Thriller</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr"/>
+      <c r="F290" t="inlineStr"/>
+      <c r="G290" t="inlineStr"/>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>293</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Léon: The Professional (a.k.a. The Professional) (Léon)</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Action, Crime, Drama, Thriller</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr"/>
+      <c r="F291" t="inlineStr"/>
+      <c r="G291" t="inlineStr"/>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>294</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Perez Family, The</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Comedy, Romance</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr"/>
+      <c r="F292" t="inlineStr"/>
+      <c r="G292" t="inlineStr"/>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>295</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Pyromaniac's Love Story, A</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Comedy, Romance</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr"/>
+      <c r="F293" t="inlineStr"/>
+      <c r="G293" t="inlineStr"/>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>296</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Pulp Fiction</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Comedy, Crime, Drama, Thriller</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr"/>
+      <c r="F294" t="inlineStr"/>
+      <c r="G294" t="inlineStr"/>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>297</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Panther</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr"/>
+      <c r="F295" t="inlineStr"/>
+      <c r="G295" t="inlineStr"/>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>298</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Pushing Hands (Tui shou)</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr"/>
+      <c r="F296" t="inlineStr"/>
+      <c r="G296" t="inlineStr"/>
+      <c r="H296" t="inlineStr"/>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>299</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Priest</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr"/>
+      <c r="F297" t="inlineStr"/>
+      <c r="G297" t="inlineStr"/>
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>300</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Quiz Show</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="inlineStr"/>
+      <c r="G298" t="inlineStr"/>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>301</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Picture Bride (Bijo photo)</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Drama, Romance</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr"/>
+      <c r="F299" t="inlineStr"/>
+      <c r="G299" t="inlineStr"/>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>302</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Queen Margot (Reine Margot, La)</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Drama, Romance</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr"/>
+      <c r="F300" t="inlineStr"/>
+      <c r="G300" t="inlineStr"/>
+      <c r="H300" t="inlineStr"/>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>303</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Quick and the Dead, The</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Action, Thriller, Western</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr"/>
+      <c r="F301" t="inlineStr"/>
+      <c r="G301" t="inlineStr"/>
+      <c r="H301" t="inlineStr"/>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>OLK3m02o7xE</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
         <is>
           <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Fusce a justo neque. Cras vitae elementum urna, vel mattis ligula. Nunc sit amet nisi consectetur, aliquam odio non, ultricies felis. Donec vel mollis arcu. Phasellus nisl nibh, mattis ut eros id, egestas consequat sapien. Sed dolor est, consequat in sodales eu, pellentesque et tellus. Vivamus ultricies fringilla erat, ac eleifend sem fermentum a. Aenean faucibus nisi non libero consectetur fermentum. Quisque id suscipit nisl, in mattis dui.Cras ultricies ullamcorper arcu ac commodo. Interdum et malesuada fames ac ante ipsum primis in faucibus. Duis dignissim sapien ex, at gravida urna porta maximus. Suspendisse arcu enim, tincidunt eu gravida vitae, tempor non arcu. Fusce maximus libero justo, eget laoreet mi elementum vel. Etiam ut mi libero. Fusce eget fermentum nisl, vitae elementum nulla. Sed eget tristique est. Sed nec accumsan est.Phasellus bibendum vestibulum arcu, vitae consectetur erat iaculis sit amet. In quis justo non augue iaculis hendrerit eu quis orci. Phasellus sed consequat eros. Aliquam erat volutpat. Sed nibh arcu, ullamcorper ut faucibus sit amet, efficitur eget ante. Curabitur gravida interdum orci et accumsan. Phasellus laoreet luctus porttitor. Fusce ac lobortis orci. Vivamus nec pretium velit. Cras tellus lectus, imperdiet eget vehicula ac, vehicula in nunc. Aliquam dictum elit pellentesque nulla feugiat, ac volutpat lectus rutrum. Morbi eu leo eget dolor aliquet aliquam. Maecenas vehicula vel nunc nec tincidunt. Sed lobortis ultricies lorem, ut facilisis odio commodo quis. Morbi non eleifend dolor, id sagittis augue. Suspendisse bibendum molestie dui nec mattis.</t>
         </is>
